--- a/ЭКОНОМЕТРИКА/В процессе/Лева/E-6S-LR4.xlsx
+++ b/ЭКОНОМЕТРИКА/В процессе/Лева/E-6S-LR4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\В процессе\Лева\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA53D8CA-858C-4619-B275-13E31F6A09A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B59836-4CD5-44F7-9E14-71E48AD5BE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Входные данные" sheetId="1" r:id="rId1"/>
@@ -1132,12 +1132,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1146,6 +1140,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1388,13 +1388,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1078"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="84.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
@@ -65539,8 +65541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14FC5C4-3F91-4DF9-A6CB-A706FE7CC60B}">
   <dimension ref="A1:BL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N57" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y84" sqref="Y84"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -67852,18 +67854,18 @@
       <c r="K17" s="6">
         <v>3300</v>
       </c>
-      <c r="T17" s="41" t="s">
+      <c r="T17" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="41"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
@@ -68694,18 +68696,18 @@
       <c r="K32" s="6">
         <v>2798.25</v>
       </c>
-      <c r="T32" s="41" t="s">
+      <c r="T32" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="43"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="41"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
@@ -69497,14 +69499,14 @@
       <c r="K46" s="6">
         <v>1580</v>
       </c>
-      <c r="R46" s="39" t="s">
+      <c r="R46" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="S46" s="39"/>
-      <c r="U46" s="40" t="s">
+      <c r="S46" s="42"/>
+      <c r="U46" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="V46" s="40"/>
+      <c r="V46" s="43"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="22">
@@ -69823,15 +69825,15 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="R60" s="39" t="s">
+      <c r="R60" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="S60" s="39"/>
-      <c r="U60" s="39" t="s">
+      <c r="S60" s="42"/>
+      <c r="U60" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="V60" s="39"/>
-      <c r="W60" s="40" t="s">
+      <c r="V60" s="42"/>
+      <c r="W60" s="43" t="s">
         <v>187</v>
       </c>
       <c r="Y60" s="20" t="s">
@@ -69859,7 +69861,7 @@
         <v>186</v>
       </c>
       <c r="V61" s="21"/>
-      <c r="W61" s="40"/>
+      <c r="W61" s="43"/>
       <c r="Y61" s="23">
         <f>W62/(50-10-1)</f>
         <v>3178.0574358974022</v>
@@ -70948,8 +70950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8EE674-9EF5-4875-9BB5-2E928A94ED2D}">
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
